--- a/Second semester/neural network/HW1/lbl6.xlsx
+++ b/Second semester/neural network/HW1/lbl6.xlsx
@@ -569,7 +569,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -804,7 +804,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -929,7 +929,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -949,7 +949,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -969,7 +969,7 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1">
@@ -1979,7 +1979,7 @@
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:1">
@@ -1989,7 +1989,7 @@
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:1">
@@ -2914,7 +2914,7 @@
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:1">
@@ -2949,7 +2949,7 @@
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:1">
@@ -4114,7 +4114,7 @@
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:1">
@@ -4289,7 +4289,7 @@
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:1">
@@ -4639,7 +4639,7 @@
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:1">
@@ -4789,7 +4789,7 @@
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:1">
@@ -5009,7 +5009,7 @@
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:1">
@@ -5234,7 +5234,7 @@
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:1">
@@ -5479,7 +5479,7 @@
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
@@ -5489,7 +5489,7 @@
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
@@ -5539,7 +5539,7 @@
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
@@ -5769,7 +5769,7 @@
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
@@ -5804,67 +5804,67 @@
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
@@ -5879,7 +5879,7 @@
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
@@ -6074,7 +6074,7 @@
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
@@ -6149,7 +6149,7 @@
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
@@ -6159,7 +6159,7 @@
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
@@ -6189,7 +6189,7 @@
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
@@ -6264,7 +6264,7 @@
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
@@ -6274,7 +6274,7 @@
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
@@ -6354,12 +6354,12 @@
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
@@ -6374,7 +6374,7 @@
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
@@ -6459,7 +6459,7 @@
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
@@ -6484,7 +6484,7 @@
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
@@ -6514,7 +6514,7 @@
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
@@ -6539,7 +6539,7 @@
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
@@ -6549,7 +6549,7 @@
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
@@ -6674,27 +6674,27 @@
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
@@ -7629,7 +7629,7 @@
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
@@ -8379,7 +8379,7 @@
     </row>
     <row r="1602" spans="1:1">
       <c r="A1602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1603" spans="1:1">
